--- a/biology/Zoologie/Dendropsophus_branneri/Dendropsophus_branneri.xlsx
+++ b/biology/Zoologie/Dendropsophus_branneri/Dendropsophus_branneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus branneri est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus branneri est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre jusqu'à 700 m d'altitude dans les États du Maranhão, du Piauí, du Ceará, du Rio Grande do Norte, du Paraíba, du Pernambouc, de l'Alagoas, du Sergipe, de Bahia, du Minas Gerais, de l'Espírito Santo et de Rio de Janeiro[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre jusqu'à 700 m d'altitude dans les États du Maranhão, du Piauí, du Ceará, du Rio Grande do Norte, du Paraíba, du Pernambouc, de l'Alagoas, du Sergipe, de Bahia, du Minas Gerais, de l'Espírito Santo et de Rio de Janeiro.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Casper Branner (1850–1922)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Casper Branner (1850–1922).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cochran, 1948 : A new subspecies of tree frog from Pernambuco, Brazil. Journal of the Washington Academy of Sciences, vol. 38, no 9, p. 316-318 (texte intégral).</t>
         </is>
